--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2023/Tháng12/NKSX_LK DƯ- LO4-23_221223.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2023/Tháng12/NKSX_LK DƯ- LO4-23_221223.xlsx
@@ -15,14 +15,14 @@
     <sheet name="BM.01" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BM.01!$A$1:$H$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BM.01!$A$1:$H$33</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>STT</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>HH_Day nguồn TG102E</t>
-  </si>
-  <si>
-    <t>VT_PCB_TG102E-4G</t>
   </si>
   <si>
     <t>Số: PNK : 01</t>
@@ -175,7 +172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -242,12 +239,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -398,7 +389,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -442,13 +433,13 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -463,9 +454,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -478,27 +466,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -513,6 +480,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -554,7 +542,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -922,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -943,42 +931,42 @@
   <sheetData>
     <row r="1" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="36" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="40" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="40"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="40" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="40"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="40" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1000,10 +988,10 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -1052,7 +1040,7 @@
       <c r="B9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="15">
@@ -1060,11 +1048,11 @@
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="27" t="s">
         <v>45</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1074,7 +1062,7 @@
       <c r="B10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="15">
@@ -1092,7 +1080,7 @@
       <c r="B11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="15">
@@ -1110,7 +1098,7 @@
       <c r="B12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="15">
@@ -1128,7 +1116,7 @@
       <c r="B13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="15">
@@ -1146,7 +1134,7 @@
       <c r="B14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="15">
@@ -1164,7 +1152,7 @@
       <c r="B15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="15">
@@ -1182,7 +1170,7 @@
       <c r="B16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="15">
@@ -1200,7 +1188,7 @@
       <c r="B17" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="15">
@@ -1218,7 +1206,7 @@
       <c r="B18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="15">
@@ -1236,7 +1224,7 @@
       <c r="B19" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="15">
@@ -1254,11 +1242,11 @@
       <c r="B20" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="15">
-        <v>8840</v>
+        <v>5000</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -1272,7 +1260,7 @@
       <c r="B21" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="15">
@@ -1290,7 +1278,7 @@
       <c r="B22" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="15">
@@ -1308,7 +1296,7 @@
       <c r="B23" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="15">
@@ -1326,7 +1314,7 @@
       <c r="B24" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="15">
@@ -1344,11 +1332,11 @@
       <c r="B25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="15">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -1362,7 +1350,7 @@
       <c r="B26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="15">
@@ -1373,73 +1361,65 @@
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
-        <v>19</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="15">
-        <v>16</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+    <row r="27" spans="1:8" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="9"/>
+      <c r="A28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:8" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="32" t="s">
-        <v>21</v>
+      <c r="A29" s="38" t="s">
+        <v>5</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
-      <c r="D29" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>4</v>
+      <c r="D29" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="12" t="s">
-        <v>5</v>
-      </c>
+      <c r="A30" s="7"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="B31" s="26"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1449,7 +1429,7 @@
     </row>
     <row r="32" spans="1:8" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="B32" s="26"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1458,78 +1438,68 @@
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
+      <c r="A33" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30" t="s">
+      <c r="E33" s="34"/>
+      <c r="F33" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="13" t="s">
+      <c r="G33" s="34"/>
+      <c r="H33" s="13" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="26"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
     <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="27"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="B35" s="26"/>
     </row>
     <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="27"/>
+      <c r="B36" s="26"/>
     </row>
     <row r="37" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="27"/>
+      <c r="B37" s="26"/>
     </row>
     <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="27"/>
+      <c r="B38" s="26"/>
     </row>
     <row r="39" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="27"/>
+      <c r="B39" s="26"/>
     </row>
     <row r="40" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="27"/>
+      <c r="B40" s="26"/>
     </row>
     <row r="41" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="27"/>
+      <c r="B41" s="26"/>
     </row>
     <row r="42" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="27"/>
-    </row>
-    <row r="43" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="27"/>
+      <c r="B42" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D33:E33"/>
     <mergeCell ref="C2:F4"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2023/Tháng12/NKSX_LK DƯ- LO4-23_221223.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2023/Tháng12/NKSX_LK DƯ- LO4-23_221223.xlsx
@@ -15,14 +15,14 @@
     <sheet name="BM.01" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BM.01!$A$1:$H$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BM.01!$A$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>VT_CONN_SIM MUP-C7801-2</t>
-  </si>
-  <si>
-    <t>HH_Day nguồn TG102E</t>
   </si>
   <si>
     <t>Số: PNK : 01</t>
@@ -172,7 +169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -244,11 +241,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -389,7 +381,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -439,9 +431,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -466,6 +455,27 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -480,27 +490,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -542,7 +531,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -910,16 +899,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="21" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
@@ -931,48 +920,48 @@
   <sheetData>
     <row r="1" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="32"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="32" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="32"/>
+      <c r="H3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="32" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="32"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -984,14 +973,14 @@
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -999,7 +988,7 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1011,7 +1000,7 @@
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1040,7 +1029,7 @@
       <c r="B9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="15">
@@ -1048,11 +1037,11 @@
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1062,13 +1051,13 @@
       <c r="B10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="15">
         <v>1000</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -1080,7 +1069,7 @@
       <c r="B11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="15">
@@ -1098,7 +1087,7 @@
       <c r="B12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="15">
@@ -1116,7 +1105,7 @@
       <c r="B13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="15">
@@ -1134,7 +1123,7 @@
       <c r="B14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="15">
@@ -1152,7 +1141,7 @@
       <c r="B15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="15">
@@ -1170,7 +1159,7 @@
       <c r="B16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="15">
@@ -1188,7 +1177,7 @@
       <c r="B17" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="15">
@@ -1206,7 +1195,7 @@
       <c r="B18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="15">
@@ -1224,7 +1213,7 @@
       <c r="B19" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="15">
@@ -1242,7 +1231,7 @@
       <c r="B20" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="15">
@@ -1260,7 +1249,7 @@
       <c r="B21" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="15">
@@ -1278,7 +1267,7 @@
       <c r="B22" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="15">
@@ -1296,7 +1285,7 @@
       <c r="B23" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="15">
@@ -1314,7 +1303,7 @@
       <c r="B24" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="15">
@@ -1332,7 +1321,7 @@
       <c r="B25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="15">
@@ -1343,73 +1332,65 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15">
-        <v>18</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="15">
-        <v>16</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+    <row r="26" spans="1:8" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="9"/>
+      <c r="A27" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>4</v>
+      <c r="A28" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="12" t="s">
-        <v>5</v>
-      </c>
+      <c r="A29" s="7"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
-      <c r="B30" s="25"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1419,7 +1400,7 @@
     </row>
     <row r="31" spans="1:8" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="B31" s="25"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1428,78 +1409,68 @@
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="35" t="s">
+      <c r="A32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34" t="s">
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34" t="s">
+      <c r="E32" s="28"/>
+      <c r="F32" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="34"/>
-      <c r="H33" s="13" t="s">
+      <c r="G32" s="28"/>
+      <c r="H32" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="26"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="26"/>
-    </row>
-    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="26"/>
-    </row>
-    <row r="37" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="26"/>
-    </row>
-    <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="26"/>
-    </row>
-    <row r="39" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="26"/>
-    </row>
-    <row r="40" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="26"/>
-    </row>
-    <row r="41" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="26"/>
-    </row>
-    <row r="42" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="26"/>
+    <row r="33" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="25"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="25"/>
+    </row>
+    <row r="35" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="25"/>
+    </row>
+    <row r="36" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="25"/>
+    </row>
+    <row r="37" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="25"/>
+    </row>
+    <row r="38" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="25"/>
+    </row>
+    <row r="39" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="25"/>
+    </row>
+    <row r="40" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="25"/>
+    </row>
+    <row r="41" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D33:E33"/>
     <mergeCell ref="C2:F4"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0" header="0" footer="0"/>
